--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06727106285978568</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.551949685060771</v>
+        <v>-1.550891157201696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008078767280236005</v>
+        <v>0.01784870396614938</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1306773143389048</v>
+        <v>-0.1080885659291187</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06561735840837736</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.55658359735388</v>
+        <v>-1.544293656054764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01802342008861375</v>
+        <v>0.0309413950171285</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09047844000000656</v>
+        <v>-0.06321170676171474</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07348515409887167</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.633160414614719</v>
+        <v>-1.631488019298337</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04314925904161618</v>
+        <v>-0.03258444269944596</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09773939020656663</v>
+        <v>-0.06985564147272495</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09065329738474907</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.777188673280657</v>
+        <v>-1.784165513035822</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09969117391697949</v>
+        <v>-0.1030123542629239</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1019860937958359</v>
+        <v>-0.07381587358191748</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1115290512482073</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.837531844333961</v>
+        <v>-1.871870645484257</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1313982150964605</v>
+        <v>-0.1440501807934755</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1007504887856149</v>
+        <v>-0.07415113965475452</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1304983017616077</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.660744312705953</v>
+        <v>-1.691990166282893</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1425469925326333</v>
+        <v>-0.1789099822729218</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1015233321741735</v>
+        <v>-0.0827877825733314</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.144113441163614</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328334297564506</v>
+        <v>-1.329619484177049</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1570956512708156</v>
+        <v>-0.1901689410475856</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05559188019549811</v>
+        <v>-0.02939547995969077</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1512192123510461</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8083980053399781</v>
+        <v>-0.7763336618199618</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09930396521313951</v>
+        <v>-0.1469904485120652</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06579939419713307</v>
+        <v>-0.04966569820380103</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.150177864600508</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2608313814601374</v>
+        <v>-0.2070361299514438</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1069993446971786</v>
+        <v>-0.1753542730779035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01098912863552098</v>
+        <v>0.041010395336089</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1377869845267183</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3220688236546611</v>
+        <v>0.4023233365924193</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1336773947841039</v>
+        <v>-0.1896148863168878</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08599428780374135</v>
+        <v>0.1136907282621483</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1093506622084132</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9854218681165017</v>
+        <v>1.087152297945286</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.215192697038024</v>
+        <v>-0.3062544252626326</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1504031502473655</v>
+        <v>0.1661118610779464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06200039271609532</v>
       </c>
       <c r="E13" t="n">
-        <v>1.676288766818678</v>
+        <v>1.812106154738351</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3769483460576105</v>
+        <v>-0.4771079048033371</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2563173229005675</v>
+        <v>0.277217148793198</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.003627948679056605</v>
       </c>
       <c r="E14" t="n">
-        <v>2.342616707419777</v>
+        <v>2.490873568455089</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6198399587228834</v>
+        <v>-0.7246035233984146</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3639078259179547</v>
+        <v>0.3859850181133181</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08126515385190398</v>
       </c>
       <c r="E15" t="n">
-        <v>3.04918602087605</v>
+        <v>3.214643762868935</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9158185142922648</v>
+        <v>-1.030680985650061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.506158229986383</v>
+        <v>0.5347188069423841</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1601407646448864</v>
       </c>
       <c r="E16" t="n">
-        <v>3.72971161395128</v>
+        <v>3.900591851817047</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.150984054100633</v>
+        <v>-1.267573224434497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667879250585301</v>
+        <v>0.6976455261882182</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2345791027125415</v>
       </c>
       <c r="E17" t="n">
-        <v>4.398830290454446</v>
+        <v>4.58188241818523</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.44434344185217</v>
+        <v>-1.581793874610192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8401430512586908</v>
+        <v>0.8693552721309102</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3044630856216194</v>
       </c>
       <c r="E18" t="n">
-        <v>5.069596964977612</v>
+        <v>5.282103712525297</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.656019107303808</v>
+        <v>-1.78655959611932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.999547115711054</v>
+        <v>1.027563082051085</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3700158877600553</v>
       </c>
       <c r="E19" t="n">
-        <v>5.552839723446379</v>
+        <v>5.758422360879462</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.886132045732802</v>
+        <v>-2.033473614649077</v>
       </c>
       <c r="G19" t="n">
-        <v>1.16372203212008</v>
+        <v>1.192131503240436</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4306560123310398</v>
       </c>
       <c r="E20" t="n">
-        <v>5.985139353054249</v>
+        <v>6.21247808278195</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.035313643001877</v>
+        <v>-2.180004563717882</v>
       </c>
       <c r="G20" t="n">
-        <v>1.290454181671605</v>
+        <v>1.318723565090165</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4847479844081011</v>
       </c>
       <c r="E21" t="n">
-        <v>6.273844366264099</v>
+        <v>6.491428899497101</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.234477430458296</v>
+        <v>-2.370071307662744</v>
       </c>
       <c r="G21" t="n">
-        <v>1.404715377725064</v>
+        <v>1.429301556399781</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5318103553980298</v>
       </c>
       <c r="E22" t="n">
-        <v>6.604111354371895</v>
+        <v>6.827844006292697</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.331244190988059</v>
+        <v>-2.454731500121023</v>
       </c>
       <c r="G22" t="n">
-        <v>1.498862183427422</v>
+        <v>1.519031664447769</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5712709801431741</v>
       </c>
       <c r="E23" t="n">
-        <v>6.722915169609428</v>
+        <v>6.946953181239762</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.418946175398252</v>
+        <v>-2.5360256526884</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59914451566461</v>
+        <v>1.616115589830474</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6025787382350151</v>
       </c>
       <c r="E24" t="n">
-        <v>6.854865192548066</v>
+        <v>7.066852513785721</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.471841874979122</v>
+        <v>-2.576576320300909</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598549536436759</v>
+        <v>1.617387397280485</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6265864539655815</v>
       </c>
       <c r="E25" t="n">
-        <v>6.928970012778902</v>
+        <v>7.146161041231577</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.478570806722682</v>
+        <v>-2.587924211155926</v>
       </c>
       <c r="G25" t="n">
-        <v>1.641617847633788</v>
+        <v>1.660062203697189</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6434844568005396</v>
       </c>
       <c r="E26" t="n">
-        <v>6.920585212919732</v>
+        <v>7.112979144135437</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.501113908577951</v>
+        <v>-2.625596784805137</v>
       </c>
       <c r="G26" t="n">
-        <v>1.664990457565982</v>
+        <v>1.663147281174939</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.65268398191303</v>
       </c>
       <c r="E27" t="n">
-        <v>6.849428530503093</v>
+        <v>7.02811590321051</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.401392714157506</v>
+        <v>-2.504069129478193</v>
       </c>
       <c r="G27" t="n">
-        <v>1.623203397933691</v>
+        <v>1.628556636965235</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6543418082444346</v>
       </c>
       <c r="E28" t="n">
-        <v>6.719109191374123</v>
+        <v>6.872605962064245</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.329833869855374</v>
+        <v>-2.405856632385515</v>
       </c>
       <c r="G28" t="n">
-        <v>1.566692963440754</v>
+        <v>1.552197821352696</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.64912492702108</v>
       </c>
       <c r="E29" t="n">
-        <v>6.559549299028752</v>
+        <v>6.691891252728592</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.244204868627934</v>
+        <v>-2.323338679951326</v>
       </c>
       <c r="G29" t="n">
-        <v>1.515189483772674</v>
+        <v>1.492141121779468</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6384832897903941</v>
       </c>
       <c r="E30" t="n">
-        <v>6.374121976443924</v>
+        <v>6.476442663443197</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.19387009815742</v>
+        <v>-2.267479102365047</v>
       </c>
       <c r="G30" t="n">
-        <v>1.446001899276781</v>
+        <v>1.426422675426922</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6232980261751255</v>
       </c>
       <c r="E31" t="n">
-        <v>6.087694568902595</v>
+        <v>6.166595425396035</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.99875862292879</v>
+        <v>-2.039875937424968</v>
       </c>
       <c r="G31" t="n">
-        <v>1.364894267975278</v>
+        <v>1.345349672546087</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6043380789908479</v>
       </c>
       <c r="E32" t="n">
-        <v>5.824115622926067</v>
+        <v>5.880125519338431</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.869929092898132</v>
+        <v>-1.897702660293483</v>
       </c>
       <c r="G32" t="n">
-        <v>1.280038897145958</v>
+        <v>1.246120359101049</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5825447930461137</v>
       </c>
       <c r="E33" t="n">
-        <v>5.461963729478084</v>
+        <v>5.491826020247401</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.799428776455074</v>
+        <v>-1.818312283853319</v>
       </c>
       <c r="G33" t="n">
-        <v>1.20059500405567</v>
+        <v>1.163062518108255</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5576087950182542</v>
       </c>
       <c r="E34" t="n">
-        <v>5.15333635624993</v>
+        <v>5.156067279425387</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.716173396062556</v>
+        <v>-1.736770223274337</v>
       </c>
       <c r="G34" t="n">
-        <v>1.082222470057373</v>
+        <v>1.037399127540093</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5296466468856408</v>
       </c>
       <c r="E35" t="n">
-        <v>4.740867793551327</v>
+        <v>4.724507438804528</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.665253090478919</v>
+        <v>-1.681164849776147</v>
       </c>
       <c r="G35" t="n">
-        <v>1.011231059648469</v>
+        <v>0.9661511520144174</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4988000616104139</v>
       </c>
       <c r="E36" t="n">
-        <v>4.271067158378469</v>
+        <v>4.24108209411769</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.582276311470871</v>
+        <v>-1.584808908237044</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9429139077266553</v>
+        <v>0.8908721135190907</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4656902827269462</v>
       </c>
       <c r="E37" t="n">
-        <v>3.896944849512993</v>
+        <v>3.841769183234919</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.54871822380474</v>
+        <v>-1.550681025649002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8650818102165789</v>
+        <v>0.8164808218081776</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4321958780406728</v>
       </c>
       <c r="E38" t="n">
-        <v>3.549421889778378</v>
+        <v>3.472450780727653</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.454889369964885</v>
+        <v>-1.45736451503313</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7691374746776954</v>
+        <v>0.7148700174326117</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3993861186046287</v>
       </c>
       <c r="E39" t="n">
-        <v>3.11543018961511</v>
+        <v>3.019802231919608</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.430021441867456</v>
+        <v>-1.429902603423797</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7075083300022883</v>
+        <v>0.659069465563381</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3689899314104598</v>
       </c>
       <c r="E40" t="n">
-        <v>2.699911177859427</v>
+        <v>2.583298397238744</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.427673005338475</v>
+        <v>-1.423811149424363</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6361360069660299</v>
+        <v>0.5846750258142253</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3418145224274199</v>
       </c>
       <c r="E41" t="n">
-        <v>2.349677757197932</v>
+        <v>2.234391874696506</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.39352859554966</v>
+        <v>-1.383877497307404</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5840202338597642</v>
+        <v>0.5309348649747772</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3176445979377406</v>
       </c>
       <c r="E42" t="n">
-        <v>1.972785174678968</v>
+        <v>1.851892636067468</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.364067679656275</v>
+        <v>-1.353103849466855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5193500842420041</v>
+        <v>0.4686698165743646</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2960752618026694</v>
       </c>
       <c r="E43" t="n">
-        <v>1.735994460127856</v>
+        <v>1.617048983169405</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.343764407010617</v>
+        <v>-1.339511407344863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4447998165998396</v>
+        <v>0.3921189706290269</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2754533882434925</v>
       </c>
       <c r="E44" t="n">
-        <v>1.525016085146954</v>
+        <v>1.418694241541335</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.345622536583313</v>
+        <v>-1.339974955976086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.378325841069069</v>
+        <v>0.3328461325782069</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.254989640443764</v>
       </c>
       <c r="E45" t="n">
-        <v>1.303912045158725</v>
+        <v>1.193982549727086</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.275127729207179</v>
+        <v>-1.267836872637315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203972153478398</v>
+        <v>0.266998616657714</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2337686445143531</v>
       </c>
       <c r="E46" t="n">
-        <v>1.081123804710705</v>
+        <v>0.9692236373391963</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.214241521557026</v>
+        <v>-1.209842138112991</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2860993386946978</v>
+        <v>0.2403126964751821</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2111911968581926</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9569289739827166</v>
+        <v>0.8449359394830513</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.16355338379378</v>
+        <v>-1.151261081465982</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2096964505467624</v>
+        <v>0.1593498749328386</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1876627001930758</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7939692003353351</v>
+        <v>0.6995563854014772</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.090735324194607</v>
+        <v>-1.077090939441612</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1537967354728898</v>
+        <v>0.1136277674972962</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1632901883178369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6299044652648005</v>
+        <v>0.529609540874642</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.032348658909079</v>
+        <v>-1.026003787831116</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1069586484803452</v>
+        <v>0.06393913187607611</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1387153200040013</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5531521448719364</v>
+        <v>0.4567812501511805</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9773193764092859</v>
+        <v>-0.9780095837939763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09371327757459992</v>
+        <v>0.06280898614698222</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.114843608705271</v>
       </c>
       <c r="E51" t="n">
-        <v>0.434578136426113</v>
+        <v>0.3394286805434864</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9596203183998203</v>
+        <v>-0.9624834591814663</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08689147870288275</v>
+        <v>0.06588147147176117</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09215550885069276</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2977722644982637</v>
+        <v>0.2264156816532183</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9646194031290714</v>
+        <v>-0.9771289200956086</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02837731786852967</v>
+        <v>0.001022439559445022</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07195205665702809</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2327385164634832</v>
+        <v>0.1524950216595741</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9288797249608179</v>
+        <v>-0.9222444473549749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03831567460042222</v>
+        <v>0.0185869189340394</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05504634548993136</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1328969095802592</v>
+        <v>0.08317049750012792</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8989749356752261</v>
+        <v>-0.9039330959073233</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0003847335349977926</v>
+        <v>-0.01700637545593306</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04169695580555415</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08799644012603583</v>
+        <v>0.05964363369404654</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9148394743988157</v>
+        <v>-0.9264580965426968</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01187979517785672</v>
+        <v>-0.03071923004070465</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03213808674426072</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01032804060457469</v>
+        <v>-0.01018772462245848</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9280022093006928</v>
+        <v>-0.9462073144576565</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04477522079391979</v>
+        <v>-0.05855575820090731</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02602700302917692</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08488122800466132</v>
+        <v>-0.09983755769526045</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9612085036932128</v>
+        <v>-0.9863353579360963</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08331980103633103</v>
+        <v>-0.09361073805139493</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.02342508779921175</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1217667920932216</v>
+        <v>-0.129463745596382</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.962355963632641</v>
+        <v>-0.9931280374540694</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1082255055926718</v>
+        <v>-0.1164198491381632</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02352989046608927</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1944990676502838</v>
+        <v>-0.1954088507023956</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9695940905619421</v>
+        <v>-0.9948791337265164</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1208601570793524</v>
+        <v>-0.1217400337681595</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02531176628679824</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2707146475227844</v>
+        <v>-0.2600506679759723</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.011108057876687</v>
+        <v>-1.046973657574645</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1286956242651873</v>
+        <v>-0.1264605171129403</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02781548235877672</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3449013167479285</v>
+        <v>-0.3245224911844484</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9925204660732473</v>
+        <v>-1.026634182489197</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1670481741747998</v>
+        <v>-0.1631320146010037</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03035949209904045</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4714209737180777</v>
+        <v>-0.4568833331137446</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.03443108620656</v>
+        <v>-1.078406032417459</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.187689860931537</v>
+        <v>-0.1876473624152619</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.032215298178431</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5241616324154998</v>
+        <v>-0.5186840458733735</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.065192141894139</v>
+        <v>-1.124091937413211</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2228266897763323</v>
+        <v>-0.2226378074817762</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03281901957143409</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6678601340755248</v>
+        <v>-0.6585986055657916</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.10768121405453</v>
+        <v>-1.170272084413052</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2733165011302944</v>
+        <v>-0.2779551354807676</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.03162352227432093</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.836767338972741</v>
+        <v>-0.8250527016624607</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.177713259809001</v>
+        <v>-1.246887465142363</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3378497110845013</v>
+        <v>-0.3464029309896493</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.02827405215300715</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9486651453155676</v>
+        <v>-0.9412696164741363</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.205478170099185</v>
+        <v>-1.276741098806512</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3715762187966112</v>
+        <v>-0.376166058554324</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02293198886903487</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.042703343698556</v>
+        <v>-1.045498801657986</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.269118911211614</v>
+        <v>-1.349282131040337</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4327174175444151</v>
+        <v>-0.4532064244463861</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.0160814760442148</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.151747453374464</v>
+        <v>-1.174300786354021</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.338323809917841</v>
+        <v>-1.428582001381026</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4536865002783829</v>
+        <v>-0.4558696647996269</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.008650119538974783</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.323591777952027</v>
+        <v>-1.365319811867269</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.396284703031057</v>
+        <v>-1.491486101544687</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4889382325190331</v>
+        <v>-0.4943308220286092</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.001582422414364549</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.383620145181072</v>
+        <v>-1.431174410873808</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.486897048796535</v>
+        <v>-1.594928277167886</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5302168839751437</v>
+        <v>-0.5419669367156532</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.003939169326888856</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.447286857609003</v>
+        <v>-1.501389829855911</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.527635024684478</v>
+        <v>-1.649927653304375</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5904246893840163</v>
+        <v>-0.6108428654255288</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.007300464287047674</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.526803155578871</v>
+        <v>-1.582144093864682</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.573517682070393</v>
+        <v>-1.691845356523733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5833069749174945</v>
+        <v>-0.6130685284630479</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.008068834911540241</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.585835168704132</v>
+        <v>-1.671036823740138</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.576723172010922</v>
+        <v>-1.692957401032932</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6154893698716084</v>
+        <v>-0.6508119329727171</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.005740519688997589</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.639643799375357</v>
+        <v>-1.734346233827534</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.609681558391837</v>
+        <v>-1.721234654547099</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.620250777713543</v>
+        <v>-0.6540292280566558</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.0001408257352748141</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.64257619699834</v>
+        <v>-1.751008013236062</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.595631076705547</v>
+        <v>-1.702821778866124</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6415708667115607</v>
+        <v>-0.67558699394199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.008831402299222663</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.556992055315857</v>
+        <v>-1.660348446896946</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.668140628556945</v>
+        <v>-1.783447760316509</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6249067262743504</v>
+        <v>-0.6602906761211899</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.02146007996696121</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.502313779080114</v>
+        <v>-1.584924598642459</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.676922081234681</v>
+        <v>-1.788264258827689</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5983026550861261</v>
+        <v>-0.6336094779960219</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0381607507143669</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.328087963572023</v>
+        <v>-1.412678112179404</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.617493415290853</v>
+        <v>-1.721440064042429</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5585964487321951</v>
+        <v>-0.5918696389373702</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.05919206478985056</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.205391599047513</v>
+        <v>-1.283875340473808</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.586187748987303</v>
+        <v>-1.680842962865841</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5674770646145735</v>
+        <v>-0.6131346372661426</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.08446311536499124</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.021315571878322</v>
+        <v>-1.090656623238542</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.545984939600602</v>
+        <v>-1.632845610790459</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5555428516368717</v>
+        <v>-0.6013263458181448</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1130264568808164</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8757306083014182</v>
+        <v>-0.9448646761471871</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.50518872500517</v>
+        <v>-1.582043356640918</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5210859990524783</v>
+        <v>-0.5631406419353902</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.143477657644263</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6580886233704902</v>
+        <v>-0.705927786524182</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.492737446746121</v>
+        <v>-1.565476805389229</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4701538883254306</v>
+        <v>-0.5044155625387827</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1730409942119452</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4483962220116913</v>
+        <v>-0.4881559450157466</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.388769548736407</v>
+        <v>-1.436579592536355</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3839055105737595</v>
+        <v>-0.4163995613138909</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1988471335814197</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2521727022738623</v>
+        <v>-0.2833115225505538</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.354862028825348</v>
+        <v>-1.383134560282151</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3614237954642218</v>
+        <v>-0.3918401409642362</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2188511588694604</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05719895371834612</v>
+        <v>-0.0841666233235908</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.226644792232876</v>
+        <v>-1.247033061911083</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.336968260376573</v>
+        <v>-0.3750107285192893</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2317385453401973</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2120921076493821</v>
+        <v>0.1938193196702024</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.115720516716573</v>
+        <v>-1.125207916970213</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2709853788116481</v>
+        <v>-0.3140961885249527</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2381761871629078</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4509605274406105</v>
+        <v>0.4389775198701484</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9783873483830885</v>
+        <v>-0.9775373780575861</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2055187755185099</v>
+        <v>-0.2413103963177663</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.23884729504579</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6235391319382605</v>
+        <v>0.6070607257573637</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8262206238504658</v>
+        <v>-0.8215867115573565</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1816597936778341</v>
+        <v>-0.220542788031325</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2351109460101326</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8129156684984314</v>
+        <v>0.8016456915899186</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.71017291609433</v>
+        <v>-0.7118429503820299</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1216613328120945</v>
+        <v>-0.1504611606745332</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2270549060265807</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9538517666005738</v>
+        <v>0.9467088678281113</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5199810376293252</v>
+        <v>-0.5020104613214352</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1042967538659053</v>
+        <v>-0.1348626311824433</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2142159369590392</v>
       </c>
       <c r="E91" t="n">
-        <v>1.076596925717844</v>
+        <v>1.075931115629534</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3203214341496969</v>
+        <v>-0.3039311730395928</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1236571890579038</v>
+        <v>-0.1587578154629091</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1953928546576749</v>
       </c>
       <c r="E92" t="n">
-        <v>1.141876220735548</v>
+        <v>1.144374189081052</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1842317409220394</v>
+        <v>-0.1677407425881721</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08490956034884473</v>
+        <v>-0.1190028145162176</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1698558271272756</v>
       </c>
       <c r="E93" t="n">
-        <v>1.175317830986702</v>
+        <v>1.169103603495807</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08476317657056376</v>
+        <v>-0.06785978522691567</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08130505656106615</v>
+        <v>-0.1130246898935176</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1391406832810106</v>
       </c>
       <c r="E94" t="n">
-        <v>1.164828567562354</v>
+        <v>1.168486588000257</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0705594563002668</v>
+        <v>0.09390530790739861</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04316499923282919</v>
+        <v>-0.06942121219524595</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1054053531308339</v>
       </c>
       <c r="E95" t="n">
-        <v>1.181591871204206</v>
+        <v>1.191344493679785</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1517410665004711</v>
+        <v>0.1788818782090588</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0759250592044604</v>
+        <v>-0.1030155023011665</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0709414162245717</v>
       </c>
       <c r="E96" t="n">
-        <v>1.102078721272581</v>
+        <v>1.109053199999064</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2338450519057576</v>
+        <v>0.27037016561554</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1012888033250997</v>
+        <v>-0.1213465289878344</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03920041157137464</v>
       </c>
       <c r="E97" t="n">
-        <v>1.053847627357685</v>
+        <v>1.065079827807287</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2830237053316763</v>
+        <v>0.3225851019264477</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06491322143184079</v>
+        <v>-0.08688023228871319</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.0127630940716602</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9335516419931588</v>
+        <v>0.9371042031499345</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2620561966168298</v>
+        <v>0.2985010353514259</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1221870551986089</v>
+        <v>-0.143236412907763</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.005668449102286384</v>
       </c>
       <c r="E99" t="n">
-        <v>0.90389239969049</v>
+        <v>0.9157778180754315</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2389495959161357</v>
+        <v>0.2646391619948842</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1077265415312195</v>
+        <v>-0.1268917983521767</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01966004279317379</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8457402632540361</v>
+        <v>0.853487585369078</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2311739414569103</v>
+        <v>0.2604601412278309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1086725270231212</v>
+        <v>-0.1249604768903407</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03279625236600812</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7911391139552365</v>
+        <v>0.798036465744776</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2052089220319341</v>
+        <v>0.2247834238244295</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09340926360386845</v>
+        <v>-0.1082853183192812</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05555124137095984</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7798030282436289</v>
+        <v>0.7932435775204155</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1718916592913625</v>
+        <v>0.1853416526828769</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07573617690990432</v>
+        <v>-0.08892330910816149</v>
       </c>
     </row>
   </sheetData>
